--- a/Whole_Data.xlsx
+++ b/Whole_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,6 +904,357 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>95</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>40kV40mA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>810</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-4.64e-07</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>95</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>40kV40mA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>770</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-4.75e-07</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>40kV40mA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>730</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-4.9e-07</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>40kV40mA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>700</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-5.16e-07</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>40kV40mA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>690</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-5.5e-07</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>95</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>40kV40mA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>650</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-5.95e-07</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>95</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>40kV40mA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>620</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-6.42e-07</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>95</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>40kV40mA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>550</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-6.77e-07</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>40kV40mA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>440</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-6.52e-07</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
